--- a/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
+++ b/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ivan-Tec. Soldagem_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elemaq.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aderci-M. A. Comp; Cad / CAM_(4)bimestre</t>
+          <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elemaq.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>And. Edson-Usin. CNC_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Valmir-Calderaria_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aderci-Fresagem_(4)bimestre</t>
+          <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rogério-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -889,17 +889,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+          <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rogério-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cleidson-Metrologia 2_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>And. Edson-Usin. CNC_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
+++ b/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
@@ -734,22 +734,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0_(4)bimestre</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Rogério-Elemaq.</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>0_(4)bimestre</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rogério-Elemaq.</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>And. Edson-Usin. CNC_(4)bimestre</t>
+          <t>Ludoff-Cont. Lóg. Prog. CLP_(4)bimestre</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>And. Edson-Usin. CNC_(4)bimestre</t>
+          <t>Aderci-M. A. Comp; Cad / CAM_(4)bimestre</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>And. Edson-Usin. CNC_(4)bimestre</t>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(4)bimestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elemaq.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>And. Edson-Usin. CNC_(4)bimestre</t>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(4)bimestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elemaq.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leonardo R.-Retificação_(4)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Cont. Lóg. Prog. CLP_(4)bimestre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ludoff-Camam. Hidráulicos_(4)bimestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
+++ b/data/turm/MEC-3A/MEC-3A_(4)bimestre.xlsx
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ludoff-Cont. Lóg. Prog. CLP_(4)bimestre</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Leonardo R.-Retificação_(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Valmir-Calderaria_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Leonardo R.-Retificação_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Aderci-M. A. Comp; Cad / CAM_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-M. Motor Endot._(4)bimestre</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leonardo R.-Retificação_(4)bimestre</t>
+          <t>Valmir-Calderaria_(4)bimestre</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>Leonardo R.-Mec. Manut. Equip. Ind._(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Rogério-Elemaq.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Humberto-Comam. Pneumáticos_(4)bimestre</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leonardo R.-Retificação_(4)bimestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>Leonardo R.-Mec. Manut. Equip. Ind._(4)bimestre</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Rogério-Elemaq.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Joel Lima-Tec. Fundição_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ludoff-Cont. Lóg. Prog. CLP_(4)bimestre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
